--- a/biology/Botanique/Arbutus_arizonica/Arbutus_arizonica.xlsx
+++ b/biology/Botanique/Arbutus_arizonica/Arbutus_arizonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbutus arizonica est une espèce de plante à fleurs de la famille des Ericaceae originaire du sud-est de l'Amérique du Nord, présent principalement au Mexique mais aussi aux États-Unis, depuis la Sierra Madre occidentale[1].
-Il se rencontre depuis le Jalisco au sud, jusqu'en Arizona et au Nouveau-Mexique; il se rencontre dans le Sonora, le Chihuahua et le Durango, probablement pas dans le voisin Sinaloa[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbutus arizonica est une espèce de plante à fleurs de la famille des Ericaceae originaire du sud-est de l'Amérique du Nord, présent principalement au Mexique mais aussi aux États-Unis, depuis la Sierra Madre occidentale.
+Il se rencontre depuis le Jalisco au sud, jusqu'en Arizona et au Nouveau-Mexique; il se rencontre dans le Sonora, le Chihuahua et le Durango, probablement pas dans le voisin Sinaloa.
 Ce sont des arbres qui mesurent jusqu'à 45 pieds en hauteur et qui possède une écorce brune rosâtre. Son fruit est une baie rouge orangé.
 </t>
         </is>
